--- a/biology/Botanique/Jardin_extraordinaire_(parc)/Jardin_extraordinaire_(parc).xlsx
+++ b/biology/Botanique/Jardin_extraordinaire_(parc)/Jardin_extraordinaire_(parc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin extraordinaire est un parc public situé à Nantes, dans la partie ouest de l'ancienne Carrière de Miséry, située sur la rive droite de la Loire, dans le quartier Bellevue - Chantenay - Sainte-Anne. L'accès au parc s'effectue du côté sud, à partir du boulevard de Cardiff et du quai Marquis-d'Aiguillon. 
-Ce 101e parc nantais a été inauguré le 28 septembre 2019. Il comporte une cascade de 25 mètres de haut, et est agrémenté de plantes d'eau géantes, lierres, bananiers et fougères arborescentes bénéficiant du microclimat créé par la carrière[1]. 
-Un escalier métallique conçu par François Delarozière, créateur des Machines de l'Île, reliant le jardin au square Maurice-Schwob situé en haut de la falaise a été installé en octobre 2020[2].
-Lors de l'aménagement de la partie est de la carrière, il devait accueillir l'Arbre aux Hérons en 2022, une nouvelle attraction des Machines de l'Île, également imaginée par Delarozière[3]. Elle a cependant été annulée en 2022[4], suite au carnaval de désenvoûtement organisé par le collectif la Commune de Chantenay le 20 mars 2022[5].
-L'aménagement de cette deuxième partie d'1,5 hectares, qui devrait ouvrir en 2025, doit finalement comporter un marais, un potager, un bassin de baignade ou encore une via ferrata[6].
+Ce 101e parc nantais a été inauguré le 28 septembre 2019. Il comporte une cascade de 25 mètres de haut, et est agrémenté de plantes d'eau géantes, lierres, bananiers et fougères arborescentes bénéficiant du microclimat créé par la carrière. 
+Un escalier métallique conçu par François Delarozière, créateur des Machines de l'Île, reliant le jardin au square Maurice-Schwob situé en haut de la falaise a été installé en octobre 2020.
+Lors de l'aménagement de la partie est de la carrière, il devait accueillir l'Arbre aux Hérons en 2022, une nouvelle attraction des Machines de l'Île, également imaginée par Delarozière. Elle a cependant été annulée en 2022, suite au carnaval de désenvoûtement organisé par le collectif la Commune de Chantenay le 20 mars 2022.
+L'aménagement de cette deuxième partie d'1,5 hectares, qui devrait ouvrir en 2025, doit finalement comporter un marais, un potager, un bassin de baignade ou encore une via ferrata.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Vidéo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			La cascade
